--- a/mapping_files/player_fbref_fpl.xlsx
+++ b/mapping_files/player_fbref_fpl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/simon_nyberg_accenture_com/Documents/Just for fun/fantasy-pl/mapping_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{5E50FC6F-8171-5A4F-8538-A8BE9B15AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85CF9D7D-E512-5347-BF7E-B0DD657DDD86}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{5E50FC6F-8171-5A4F-8538-A8BE9B15AB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF3F820-A9ED-5C4D-A12F-D15FF1885A78}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{13BBA5E0-B604-CD44-A4A4-BA5BF360F03A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="21000" xr2:uid="{13BBA5E0-B604-CD44-A4A4-BA5BF360F03A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t>key</t>
   </si>
@@ -903,6 +903,141 @@
   </si>
   <si>
     <t>Ederson_13</t>
+  </si>
+  <si>
+    <t>Ashley Young_2</t>
+  </si>
+  <si>
+    <t>Tyrone Mings_2</t>
+  </si>
+  <si>
+    <t>Amadou Onana_8</t>
+  </si>
+  <si>
+    <t>Salomón Rondón_8</t>
+  </si>
+  <si>
+    <t>Tom Davies_8</t>
+  </si>
+  <si>
+    <t>Conor Coady_8</t>
+  </si>
+  <si>
+    <t>Emile Smith Rowe_1</t>
+  </si>
+  <si>
+    <t>Takehiro Tomiyasu_1</t>
+  </si>
+  <si>
+    <t>Kelechi Iheanacho_10</t>
+  </si>
+  <si>
+    <t>Dennis Praet_10</t>
+  </si>
+  <si>
+    <t>John Stones_13</t>
+  </si>
+  <si>
+    <t>Rico Lewis_13</t>
+  </si>
+  <si>
+    <t>Junior Stanislas_3</t>
+  </si>
+  <si>
+    <t>Marcos Senesi_3</t>
+  </si>
+  <si>
+    <t>Jack Stacey_3</t>
+  </si>
+  <si>
+    <t>Che Adams_17</t>
+  </si>
+  <si>
+    <t>Mohamed Elyounoussi_17</t>
+  </si>
+  <si>
+    <t>Sekou Mara_17</t>
+  </si>
+  <si>
+    <t>Armel Bella Kotchap_17</t>
+  </si>
+  <si>
+    <t>Daniel James_11</t>
+  </si>
+  <si>
+    <t>Luis Sinisterra_11</t>
+  </si>
+  <si>
+    <t>Adam Forshaw_11</t>
+  </si>
+  <si>
+    <t>Gonçalo Guedes_20</t>
+  </si>
+  <si>
+    <t>Adama Traoré_20</t>
+  </si>
+  <si>
+    <t>Nélson Semedo_20</t>
+  </si>
+  <si>
+    <t>Jay Stansfield_9</t>
+  </si>
+  <si>
+    <t>Kevin Mbabu_9</t>
+  </si>
+  <si>
+    <t>Tom Cairney_9</t>
+  </si>
+  <si>
+    <t>Tyrese Francois_9</t>
+  </si>
+  <si>
+    <t>Kaoru Mitoma_5</t>
+  </si>
+  <si>
+    <t>Jacob Murphy_15</t>
+  </si>
+  <si>
+    <t>Frank Onyeka_4</t>
+  </si>
+  <si>
+    <t>Mads Roerslev_4</t>
+  </si>
+  <si>
+    <t>Tyrell Malacia_14</t>
+  </si>
+  <si>
+    <t>Raphaël Varane_14</t>
+  </si>
+  <si>
+    <t>Cafú_16</t>
+  </si>
+  <si>
+    <t>Steve Cook_16</t>
+  </si>
+  <si>
+    <t>Maxwel Cornet_19</t>
+  </si>
+  <si>
+    <t>Richarlison_18</t>
+  </si>
+  <si>
+    <t>Kostas Tsimikas_12</t>
+  </si>
+  <si>
+    <t>Nathaniel Phillips_12</t>
+  </si>
+  <si>
+    <t>Joe Gomez_12</t>
+  </si>
+  <si>
+    <t>Michael Olise_7</t>
+  </si>
+  <si>
+    <t>Chris Richards_7</t>
+  </si>
+  <si>
+    <t>Joel Ward_7</t>
   </si>
 </sst>
 </file>
@@ -1254,11 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92676BC-87EE-954B-9532-A7FF3E154E7E}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A289" sqref="A289"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="C323" sqref="C323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1274,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1416,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1424,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1298,7 +1432,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1306,7 +1440,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +1448,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1322,7 +1456,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1464,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1338,7 +1472,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1480,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1354,7 +1488,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1362,7 +1496,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1504,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1378,7 +1512,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1520,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1394,7 +1528,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1402,7 +1536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1418,7 +1552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1426,7 +1560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1434,7 +1568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1442,7 +1576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1450,7 +1584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1458,7 +1592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1466,7 +1600,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1474,7 +1608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1482,7 +1616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1490,7 +1624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1498,7 +1632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1506,7 +1640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1514,7 +1648,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1522,7 +1656,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1530,7 +1664,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1672,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1546,7 +1680,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1554,7 +1688,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1570,7 +1704,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1578,7 +1712,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1586,7 +1720,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1594,7 +1728,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1610,7 +1744,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1618,7 +1752,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1626,7 +1760,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1634,7 +1768,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1642,7 +1776,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1650,7 +1784,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1658,7 +1792,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1666,7 +1800,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1674,7 +1808,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1690,7 +1824,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1698,7 +1832,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1706,7 +1840,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1714,7 +1848,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1722,7 +1856,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1730,7 +1864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1738,7 +1872,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1746,7 +1880,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1754,7 +1888,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1762,7 +1896,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1770,7 +1904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1778,7 +1912,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1786,7 +1920,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1794,7 +1928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1802,7 +1936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1810,7 +1944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1818,7 +1952,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1826,7 +1960,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1834,7 +1968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1842,7 +1976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1850,7 +1984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1858,7 +1992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1866,7 +2000,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1874,7 +2008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1882,7 +2016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1890,7 +2024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1898,7 +2032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1906,7 +2040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1914,7 +2048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1922,7 +2056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1930,7 +2064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1938,7 +2072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -1946,7 +2080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -1954,7 +2088,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -1962,7 +2096,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -1970,7 +2104,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -1978,7 +2112,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -1986,7 +2120,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -1994,7 +2128,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2002,7 +2136,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2010,7 +2144,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2018,7 +2152,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2026,7 +2160,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2034,7 +2168,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2050,7 +2184,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2058,7 +2192,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2066,7 +2200,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2074,7 +2208,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2082,7 +2216,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2090,7 +2224,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2098,7 +2232,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2106,7 +2240,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2114,7 +2248,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2122,7 +2256,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2130,7 +2264,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2138,7 +2272,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2146,7 +2280,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2154,7 +2288,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2162,7 +2296,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2170,7 +2304,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2178,7 +2312,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2186,7 +2320,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2194,7 +2328,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2202,7 +2336,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2210,7 +2344,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2218,7 +2352,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2226,7 +2360,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2234,7 +2368,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2242,7 +2376,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2250,7 +2384,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2258,7 +2392,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2266,7 +2400,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2274,7 +2408,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2282,7 +2416,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2290,7 +2424,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2298,7 +2432,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2306,7 +2440,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2314,7 +2448,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2322,7 +2456,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2330,7 +2464,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2338,7 +2472,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2346,7 +2480,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2354,7 +2488,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2362,7 +2496,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2370,7 +2504,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2378,7 +2512,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2386,7 +2520,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2394,7 +2528,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2402,7 +2536,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2410,7 +2544,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2418,7 +2552,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2426,7 +2560,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2434,7 +2568,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2442,7 +2576,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -2450,7 +2584,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2458,7 +2592,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -2466,7 +2600,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -2474,7 +2608,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -2482,7 +2616,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -2490,7 +2624,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2498,7 +2632,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -2506,7 +2640,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -2514,7 +2648,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -2522,7 +2656,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -2530,7 +2664,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -2538,7 +2672,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -2546,7 +2680,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -2554,7 +2688,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -2562,7 +2696,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -2570,7 +2704,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -2578,7 +2712,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -2586,7 +2720,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -2594,7 +2728,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -2602,7 +2736,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -2610,7 +2744,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -2618,7 +2752,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -2626,7 +2760,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -2634,7 +2768,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -2642,7 +2776,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -2650,7 +2784,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -2658,7 +2792,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -2666,7 +2800,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -2674,7 +2808,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -2682,7 +2816,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -2690,7 +2824,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -2698,7 +2832,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -2706,7 +2840,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -2714,7 +2848,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -2722,7 +2856,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -2730,7 +2864,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -2738,7 +2872,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -2746,7 +2880,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -2754,7 +2888,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -2762,7 +2896,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -2770,7 +2904,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -2778,7 +2912,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -2786,7 +2920,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -2794,7 +2928,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -2802,7 +2936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -2810,7 +2944,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -2818,7 +2952,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -2826,7 +2960,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -2834,7 +2968,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -2842,7 +2976,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -2850,7 +2984,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -2858,7 +2992,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -2866,7 +3000,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -2874,7 +3008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -2882,7 +3016,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -2890,7 +3024,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -2898,7 +3032,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -2906,7 +3040,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -2914,7 +3048,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -2922,7 +3056,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -2930,7 +3064,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -2938,7 +3072,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -2946,7 +3080,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -2954,7 +3088,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -2962,7 +3096,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -2970,7 +3104,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -2978,7 +3112,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -2986,7 +3120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -2994,7 +3128,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -3002,7 +3136,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -3010,7 +3144,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -3018,7 +3152,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -3026,7 +3160,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -3034,7 +3168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -3042,7 +3176,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -3050,7 +3184,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -3058,7 +3192,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -3066,7 +3200,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -3074,7 +3208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -3082,7 +3216,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -3090,7 +3224,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -3098,7 +3232,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -3106,7 +3240,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -3114,7 +3248,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -3122,7 +3256,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -3130,7 +3264,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -3138,7 +3272,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -3146,7 +3280,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -3154,7 +3288,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -3162,7 +3296,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -3170,7 +3304,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -3178,7 +3312,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -3186,7 +3320,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -3194,7 +3328,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -3202,7 +3336,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -3210,7 +3344,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -3218,7 +3352,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -3226,7 +3360,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -3234,7 +3368,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -3242,7 +3376,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -3250,7 +3384,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -3258,7 +3392,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -3266,7 +3400,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -3274,7 +3408,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -3282,7 +3416,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -3290,7 +3424,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -3298,7 +3432,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -3306,7 +3440,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -3322,7 +3456,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -3330,7 +3464,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -3338,7 +3472,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -3346,7 +3480,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -3354,7 +3488,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -3362,7 +3496,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -3370,7 +3504,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -3378,7 +3512,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -3386,7 +3520,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -3394,7 +3528,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -3402,7 +3536,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -3410,7 +3544,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -3418,7 +3552,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -3426,7 +3560,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -3434,7 +3568,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -3442,7 +3576,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -3450,7 +3584,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -3458,7 +3592,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -3466,7 +3600,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -3474,7 +3608,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -3482,7 +3616,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -3490,7 +3624,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -3498,7 +3632,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -3506,7 +3640,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -3514,7 +3648,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -3522,7 +3656,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -3530,7 +3664,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -3538,7 +3672,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -3546,7 +3680,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -3554,7 +3688,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -3562,18 +3696,368 @@
         <v>307</v>
       </c>
     </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B287" xr:uid="{F92676BC-87EE-954B-9532-A7FF3E154E7E}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Andrew Robertson_12"/>
-        <filter val="Antonee Robinson_9"/>
-        <filter val="Robert Sánchez_5"/>
-        <filter val="Roberto Firmino_12"/>
-        <filter val="Robin Koch_11"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B287" xr:uid="{F92676BC-87EE-954B-9532-A7FF3E154E7E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>